--- a/data/trans_orig/IMC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,89; 26,53</t>
+          <t>25,89; 26,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,22; 26,99</t>
+          <t>26,26; 27,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,25; 27,09</t>
+          <t>26,21; 27,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 26,66</t>
+          <t>25,93; 26,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,3; 24,2</t>
+          <t>23,28; 24,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 24,37</t>
+          <t>23,45; 24,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,26; 25,27</t>
+          <t>24,29; 25,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,22; 24,93</t>
+          <t>24,24; 24,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,95; 25,49</t>
+          <t>24,94; 25,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,16; 25,78</t>
+          <t>25,23; 25,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,49; 26,17</t>
+          <t>25,5; 26,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,72</t>
+          <t>25,24; 25,74</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 26,34</t>
+          <t>25,64; 26,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 27,14</t>
+          <t>26,37; 27,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 27,1</t>
+          <t>26,39; 27,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,63; 24,48</t>
+          <t>23,63; 24,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,33; 25,31</t>
+          <t>24,32; 25,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,38; 25,34</t>
+          <t>24,37; 25,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 25,63</t>
+          <t>24,86; 25,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,71; 25,26</t>
+          <t>24,73; 25,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 26,21</t>
+          <t>25,55; 26,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,2; 25,82</t>
+          <t>25,19; 25,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,76; 26,34</t>
+          <t>25,77; 26,34</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,28; 26,94</t>
+          <t>26,29; 26,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,98; 27,69</t>
+          <t>26,93; 27,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,43; 27,21</t>
+          <t>26,45; 27,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 29,55</t>
+          <t>27,17; 29,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,84; 26,43</t>
+          <t>24,76; 26,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,3; 27,71</t>
+          <t>26,45; 27,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,47; 26,95</t>
+          <t>25,47; 27,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,89; 26,09</t>
+          <t>24,92; 26,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,05; 26,69</t>
+          <t>26,04; 26,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,94; 27,55</t>
+          <t>26,94; 27,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,33; 27,03</t>
+          <t>26,36; 27,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,61; 29,23</t>
+          <t>26,69; 29,11</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,75; 27,24</t>
+          <t>26,74; 27,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,68; 27,18</t>
+          <t>26,69; 27,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,88; 27,52</t>
+          <t>26,87; 27,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,8; 25,48</t>
+          <t>24,78; 25,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,48; 26,2</t>
+          <t>25,49; 26,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,07; 25,75</t>
+          <t>25,02; 25,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,61; 31,02</t>
+          <t>25,63; 30,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,78; 26,15</t>
+          <t>25,76; 26,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 26,73</t>
+          <t>26,34; 26,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 26,51</t>
+          <t>26,06; 26,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,48; 29,49</t>
+          <t>26,49; 29,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,24; 26,14</t>
+          <t>25,25; 26,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 26,98</t>
+          <t>26,26; 26,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,41; 27,12</t>
+          <t>26,37; 27,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,3; 27,28</t>
+          <t>26,29; 27,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,91; 26,73</t>
+          <t>25,91; 26,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 27,89</t>
+          <t>27,02; 27,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,62; 27,45</t>
+          <t>26,62; 27,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,64; 27,38</t>
+          <t>26,61; 27,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,75; 26,39</t>
+          <t>25,74; 26,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,84; 27,4</t>
+          <t>26,83; 27,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,64; 27,18</t>
+          <t>26,62; 27,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,67; 27,24</t>
+          <t>26,67; 27,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,19; 23,85</t>
+          <t>23,17; 23,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,34; 24,28</t>
+          <t>23,38; 24,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,03; 23,96</t>
+          <t>23,01; 23,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,2; 25,03</t>
+          <t>23,12; 24,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,64; 26,19</t>
+          <t>25,62; 26,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,4; 27,05</t>
+          <t>26,39; 27,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,26; 26,92</t>
+          <t>26,22; 26,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,73; 26,46</t>
+          <t>25,72; 26,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,2; 25,65</t>
+          <t>25,2; 25,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,86; 26,41</t>
+          <t>25,85; 26,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,61; 26,2</t>
+          <t>25,58; 26,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,18; 25,92</t>
+          <t>25,24; 25,94</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,91; 26,15</t>
+          <t>25,89; 26,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,53; 26,8</t>
+          <t>26,53; 26,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,32; 26,63</t>
+          <t>26,31; 26,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,63; 27,76</t>
+          <t>26,62; 27,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,56</t>
+          <t>25,23; 25,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,08; 26,45</t>
+          <t>26,08; 26,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,81; 26,15</t>
+          <t>25,8; 26,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,84; 27,92</t>
+          <t>25,84; 27,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,59; 25,8</t>
+          <t>25,6; 25,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,34; 26,57</t>
+          <t>26,33; 26,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,1; 26,33</t>
+          <t>26,11; 26,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,3; 27,63</t>
+          <t>26,28; 27,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IMC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
